--- a/dormitory-server/src/main/resources/excel/roomBatch.xlsx
+++ b/dormitory-server/src/main/resources/excel/roomBatch.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduation-project\code\dormitory-server\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E9FA67-82FE-485B-9E23-386BA6738D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90702008-7026-4C57-B53A-D1317E1A063E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="2496" windowWidth="17280" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14376" yWindow="3000" windowWidth="17280" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="模版" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +61,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,14 +90,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,23 +399,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="3" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
